--- a/Experiments/OCM_viscosity/OCM_Solves.xlsx
+++ b/Experiments/OCM_viscosity/OCM_Solves.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\OKM_viscosity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\OCM_viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9B4D2-67ED-49A9-BFF0-76340F32CAB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF0EF9E-7142-47E6-9F4E-4133E5304907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -3820,24 +3820,69 @@
               <c:f>Спирт!$E$5:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>3.9502271380604387E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.800114003420103E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.6609921288669233E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>3.5316969803990822E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>3.4112229234180458E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3.298697014679202E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3.0945381401825778E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0016509079993999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9141774734081308E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.831657935721365E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7536830510808208E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6798874447273215E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6099438862064468E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5435584382551188E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4804663276696021E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4204284158296022E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3632281696797826E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3086690522913541E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2067747986317999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1134946634259748E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,7 +3892,7 @@
               <c:f>Спирт!$G$7:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-41.745815352407242</c:v>
                 </c:pt>
@@ -3865,6 +3910,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-40.297454137173816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-40.058576640297169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-39.830168372656942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-39.611226530749668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-39.397376434156627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-39.187270979010592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-38.977759577424777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-38.951994916403663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-38.92687743371016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-38.902375411693995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-38.071983542858128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-37.806554619438366</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-37.189301563536446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-36.399650057755331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,6 +4149,439 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2417290186717689E-2"/>
+                  <c:y val="-0.40997534425118748"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Спирт!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>253.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>283.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>323.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>333.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>343.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>363.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>373.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>383.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>393.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>403.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>413.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>423.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>433.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>453.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>473.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Спирт!$D$5:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>9982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68CC-46B4-998F-1AEEBA3967E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1183638671"/>
+        <c:axId val="1002441727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1183638671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002441727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1002441727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1183638671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4106,6 +4623,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5177,6 +5734,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5222,16 +6295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>342901</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>73191</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187490</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5251,6 +6324,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397042</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE3E55E-9E6F-4E42-9DB1-668137AF36F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5821,8 +6932,8 @@
   </sheetPr>
   <dimension ref="A1:V205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9852,12 +10963,12 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A5" sqref="A5:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
@@ -9918,7 +11029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="91">
         <v>-20</v>
       </c>
@@ -9949,7 +11060,7 @@
         <v>-42.495949454039838</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>-10</v>
       </c>
@@ -10166,7 +11277,7 @@
         <v>-40.297454137173816</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="92">
         <v>60</v>
       </c>
@@ -10197,7 +11308,7 @@
         <v>-40.058576640297169</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="92">
         <v>70</v>
       </c>
@@ -10228,7 +11339,7 @@
         <v>-39.830168372656942</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="92">
         <v>80</v>
       </c>
@@ -10259,7 +11370,7 @@
         <v>-39.611226530749668</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="92">
         <v>90</v>
       </c>
@@ -10290,7 +11401,7 @@
         <v>-39.397376434156627</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="92">
         <v>100</v>
       </c>
@@ -10321,7 +11432,7 @@
         <v>-39.187270979010592</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="92">
         <v>110</v>
       </c>
@@ -10352,7 +11463,7 @@
         <v>-38.977759577424777</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="92">
         <v>120</v>
       </c>
@@ -10383,7 +11494,7 @@
         <v>-38.951994916403663</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="92">
         <v>130</v>
       </c>
@@ -10414,7 +11525,7 @@
         <v>-38.92687743371016</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="92">
         <v>140</v>
       </c>
@@ -10445,7 +11556,7 @@
         <v>-38.902375411693995</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="92">
         <v>150</v>
       </c>
@@ -10476,7 +11587,7 @@
         <v>-38.071983542858128</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="92">
         <v>160</v>
       </c>
@@ -10507,7 +11618,7 @@
         <v>-37.806554619438366</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="92">
         <v>180</v>
       </c>
@@ -10538,7 +11649,7 @@
         <v>-37.189301563536446</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="92">
         <v>200</v>
       </c>

--- a/Experiments/OCM_viscosity/OCM_Solves.xlsx
+++ b/Experiments/OCM_viscosity/OCM_Solves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Diplom-work\Experiments\OCM_viscosity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Experiments\OCM_viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF0EF9E-7142-47E6-9F4E-4133E5304907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3DA13-617D-419A-A0FC-6F34188973DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,34 +108,7 @@
     <t>добавка ОКМ</t>
   </si>
   <si>
-    <t>Exp0_up</t>
-  </si>
-  <si>
     <t>Отклонения при высоких T</t>
-  </si>
-  <si>
-    <t>Exp1_up</t>
-  </si>
-  <si>
-    <t>Exp2_down</t>
-  </si>
-  <si>
-    <t>Exp3_down</t>
-  </si>
-  <si>
-    <t>Exp4_up</t>
-  </si>
-  <si>
-    <t>Exp5_down</t>
-  </si>
-  <si>
-    <t>Exp6_up</t>
-  </si>
-  <si>
-    <t>Exp7_up</t>
-  </si>
-  <si>
-    <t>Exp8_down</t>
   </si>
   <si>
     <t>Добавка</t>
@@ -303,6 +282,33 @@
   <si>
     <t>D 
 м3/с</t>
+  </si>
+  <si>
+    <t>OCM0_up</t>
+  </si>
+  <si>
+    <t>OCM1_up</t>
+  </si>
+  <si>
+    <t>OCM2_down</t>
+  </si>
+  <si>
+    <t>OCM3_down</t>
+  </si>
+  <si>
+    <t>OCM4_up</t>
+  </si>
+  <si>
+    <t>OCM5_down</t>
+  </si>
+  <si>
+    <t>OCM6_up</t>
+  </si>
+  <si>
+    <t>OCM7_up</t>
+  </si>
+  <si>
+    <t>OCM8_down</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -927,12 +933,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Спирт" xfId="1" xr:uid="{8A681B7D-D4A3-4E2B-84D7-F06B42D06188}"/>
   </cellStyles>
   <dxfs count="64">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0E+00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1773,48 +1822,6 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -6415,35 +6422,35 @@
     <tableColumn id="2" xr3:uid="{20B7447A-B783-44F2-B1A4-EC86581E32E5}" name="Е_x000a_ Дж" dataDxfId="54"/>
     <tableColumn id="3" xr3:uid="{DF17DCAE-D682-463C-9861-C2D5B36736D4}" name="d Е_x000a_Дж" dataDxfId="53"/>
     <tableColumn id="4" xr3:uid="{EF4548E5-7C26-4D63-A0F2-B091A7D76087}" name="D _x000a_м3/с" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d D _x000a_м2с" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{449D048E-21EB-4390-9181-5E474775AD2E}" name="ro _x000a_г/мл   " dataDxfId="50">
+    <tableColumn id="5" xr3:uid="{E91881F4-89DF-4CA8-8787-443661255C2B}" name="d D _x000a_м2с" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{449D048E-21EB-4390-9181-5E474775AD2E}" name="ro _x000a_г/мл   " dataDxfId="0">
       <calculatedColumnFormula>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73CC65CD-60C0-458E-859A-8516E9CA96B2}" name="Е_x000a_ кДж" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{73CC65CD-60C0-458E-859A-8516E9CA96B2}" name="Е_x000a_ кДж" dataDxfId="1">
       <calculatedColumnFormula>Аппроксимация[[#This Row],[Е
  Дж]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="48">
+    <tableColumn id="22" xr3:uid="{6E9C14D8-3A36-49B6-B4C2-012E44BCDCFA}" name="d E" dataDxfId="51">
       <calculatedColumnFormula>VLOOKUP(Аппроксимация[[#This Row],[Х спирт]],Таблица12[],2)-Аппроксимация[[#This Row],[Е
  кДж]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5287448D-75D9-4D97-A54D-67D9F9003826}" name="nu rT_x000a_мм2/с" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{42A62B81-7600-4864-AB4D-71F4E89457A9}" name="Столбец2" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{5287448D-75D9-4D97-A54D-67D9F9003826}" name="nu rT_x000a_мм2/с" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{42A62B81-7600-4864-AB4D-71F4E89457A9}" name="Столбец2" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="S4:T205" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{48B0AECA-8ECA-4EC0-842B-5628FA4C9F5F}" name="Таблица12" displayName="Таблица12" ref="S4:T205" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="S4:T205" xr:uid="{EB61DCCC-95D3-478E-9CB9-6521FBDAC904}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AA6FAF22-11E0-42F0-99E3-1111C86D0712}" name="x" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{0A20EB63-7F78-45D0-9508-B3013E7FA847}" name="E" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{AA6FAF22-11E0-42F0-99E3-1111C86D0712}" name="x" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{0A20EB63-7F78-45D0-9508-B3013E7FA847}" name="E" dataDxfId="45">
       <calculatedColumnFormula>$T$2*Таблица12[[#This Row],[x]]+$S$2*(1-Таблица12[[#This Row],[x]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6458,7 +6465,7 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{727CA1B6-BBA1-44D9-9745-C5235BB0FF2A}" name="E 0" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{727CA1B6-BBA1-44D9-9745-C5235BB0FF2A}" name="E 0" dataDxfId="44">
       <calculatedColumnFormula>N5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{6053756B-AA13-4328-8A48-0B487C7AEC64}" name="E 100">
@@ -6470,7 +6477,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="A4:W14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Эксперимент" displayName="Эксперимент" ref="A4:W14" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A4:W14" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6497,66 +6504,66 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="38">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="41">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Доп" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="34">
+    <tableColumn id="17" xr3:uid="{48747F86-4026-4D8A-857D-4C04ECCD38B1}" name="Доп" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{1871877F-C7B7-4C72-AF32-DB1A3FABAFCC}" name="m_x000a_стакан" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="37">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь    
 стакан]]-Эксперимент[[#This Row],[m
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="36">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*(1-Q4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="35">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m0
 смесь]]*Q4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="34">
       <calculatedColumnFormula>H4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="33">
       <calculatedColumnFormula>(Эксперимент[[#This Row],[m0
 смесь]]*Эксперимент[[#This Row],[w%1 т
 спирт ]]-Эксперимент[[#This Row],[m0
 спирт]])/(1-Эксперимент[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="32">
       <calculatedColumnFormula>Эксперимент[[#This Row],[m+ т
 спирт]]/Эксперимент_доп[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="mП г_x000a_пик" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="mП г_x000a_смесь    _x000a_пик " dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="mП г_x000a_смесь     " dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{13B47A94-234C-4A1B-B993-FBE523863A83}" name="m2_x000a_смесь_x000a_стакан" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{22F644F7-5CB7-438A-9D0D-9E88DE87DE4D}" name="m2_x000a_смеси" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{96247A00-C27E-4AC1-85FF-B6D781503BD2}" name="m+_x000a_ОКМ" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{0820FB03-01B9-44DB-82B9-D6B83878BDC8}" name="mП г_x000a_пик" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{26D687AE-1683-4A1E-B7EF-88F7CDAEA278}" name="mП г_x000a_смесь    _x000a_пик " dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{A0C32414-2F25-4C19-AB7C-56D7E5582549}" name="mП г_x000a_смесь     " dataDxfId="22">
       <calculatedColumnFormula>Эксперимент[[#This Row],[mП г
 смесь    
 пик ]]-Эксперимент[[#This Row],[mП г
 пик]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="18">
+    <tableColumn id="21" xr3:uid="{9EDFC20E-DF6D-40C2-BDD4-FD2ADF247B6C}" name="ro_x000a_смесь г/мл   " dataDxfId="21">
       <calculatedColumnFormula>Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[V пик мл]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="17">
+    <tableColumn id="22" xr3:uid="{C0681BE5-CAF9-4795-84C4-D0BAD37D47FB}" name="C спирт М " dataDxfId="20">
       <calculatedColumnFormula>Эксперимент[[#This Row],[w%1 
 ]]*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M спирт г/моль]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С ОКМ_x000a_М" dataDxfId="16">
+    <tableColumn id="23" xr3:uid="{BCE0D3E6-5855-4685-8CB4-47083FF3D99D}" name="С ОКМ_x000a_М" dataDxfId="19">
       <calculatedColumnFormula>(1-Эксперимент[[#This Row],[w%1 
 ]])*Эксперимент[[#This Row],[mП г
 смесь     ]]/Плотности_доп[M ОКМ г/моль]*1000</calculatedColumnFormula>
@@ -6567,19 +6574,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="J1:J2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Эксперимент_доп" displayName="Эксперимент_доп" ref="J1:J2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="J1:J2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="U1:W2" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27E4BF77-3067-4CAF-B1D9-890373194B67}" name="Плотности_доп" displayName="Плотности_доп" ref="U1:W2" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="U1:W2" xr:uid="{06838B1B-BD17-4A05-B569-F0CD134B544A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6595,7 +6602,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FDEB74B0-7CC0-426B-AF13-D49846CEA263}" name="Таблица11" displayName="Таблица11" ref="A4:G25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FDEB74B0-7CC0-426B-AF13-D49846CEA263}" name="Таблица11" displayName="Таблица11" ref="A4:G25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A4:G25" xr:uid="{FBEE8ADA-637B-4A6C-9151-BF70C924F850}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6606,22 +6613,22 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4646E664-44DF-45A5-8228-5F811DE71838}" name="t_x000a_C" dataDxfId="6" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="8" xr3:uid="{C859729B-C019-4D08-ACA4-3B460AD86104}" name="T _x000a_K" dataDxfId="5" dataCellStyle="Обычный_Спирт">
+    <tableColumn id="1" xr3:uid="{4646E664-44DF-45A5-8228-5F811DE71838}" name="t_x000a_C" dataDxfId="9" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="8" xr3:uid="{C859729B-C019-4D08-ACA4-3B460AD86104}" name="T _x000a_K" dataDxfId="8" dataCellStyle="Обычный_Спирт">
       <calculatedColumnFormula>Таблица11[[#This Row],[t
 C]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B55F4A07-4D55-496A-98F4-7923D8F9F3D3}" name="ro _x000a_кг/м3" dataDxfId="4" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="3" xr3:uid="{ED4CBB59-1BA5-4214-BACA-64678EE13752}" name="nu *106 Па с" dataDxfId="3" dataCellStyle="Обычный_Спирт"/>
-    <tableColumn id="4" xr3:uid="{DD1EE465-F62F-4809-907D-A262F14D304E}" name="1/T _x000a_K-1" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{B55F4A07-4D55-496A-98F4-7923D8F9F3D3}" name="ro _x000a_кг/м3" dataDxfId="7" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="3" xr3:uid="{ED4CBB59-1BA5-4214-BACA-64678EE13752}" name="nu *106 Па с" dataDxfId="6" dataCellStyle="Обычный_Спирт"/>
+    <tableColumn id="4" xr3:uid="{DD1EE465-F62F-4809-907D-A262F14D304E}" name="1/T _x000a_K-1" dataDxfId="5">
       <calculatedColumnFormula>1/Таблица11[[#This Row],[T 
 K]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{764FF33D-1A62-4388-9118-018F46291530}" name="D _x000a_м2с" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{764FF33D-1A62-4388-9118-018F46291530}" name="D _x000a_м2с" dataDxfId="4">
       <calculatedColumnFormula>$E$2*Таблица11[[#This Row],[T 
 K]]/Таблица11[[#This Row],[nu *106 Па с]]*10^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C8442FD2-4608-4C95-B225-0E3ADEA9ED66}" name="ln D" dataDxfId="0" dataCellStyle="Обычный_Спирт">
+    <tableColumn id="6" xr3:uid="{C8442FD2-4608-4C95-B225-0E3ADEA9ED66}" name="ln D" dataDxfId="3" dataCellStyle="Обычный_Спирт">
       <calculatedColumnFormula>LN(Таблица11[[#This Row],[D 
 м2с]])</calculatedColumnFormula>
     </tableColumn>
@@ -6932,8 +6939,8 @@
   </sheetPr>
   <dimension ref="A1:V205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6957,10 +6964,10 @@
       <c r="I1" s="7"/>
       <c r="J1" s="82"/>
       <c r="S1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -6979,72 +6986,72 @@
     </row>
     <row r="4" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="96" t="s">
-        <v>53</v>
-      </c>
       <c r="T4" s="96" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="55">
         <v>1</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D5" s="60">
         <f>Эксперимент!H5</f>
@@ -7082,7 +7089,7 @@
       <c r="L5" s="59">
         <v>3.1259016732196398E-11</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.716</v>
@@ -7112,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D6" s="60">
         <f>Эксперимент!H6</f>
@@ -7150,7 +7157,7 @@
       <c r="L6" s="59">
         <v>3.958964263266607E-12</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.5766399999999998</v>
@@ -7175,12 +7182,12 @@
         <v>59.187402660415401</v>
       </c>
       <c r="V6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" s="55">
         <v>3</v>
@@ -7214,7 +7221,7 @@
       <c r="J7" s="63"/>
       <c r="K7" s="64"/>
       <c r="L7" s="65"/>
-      <c r="M7" s="69">
+      <c r="M7" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1</v>
@@ -7244,7 +7251,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D8" s="60">
         <f>Эксперимент!H8</f>
@@ -7282,7 +7289,7 @@
       <c r="L8" s="59">
         <v>4.4943559136692431E-12</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.56918</v>
@@ -7307,7 +7314,7 @@
         <v>58.806103033677559</v>
       </c>
       <c r="V8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -7315,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D9" s="60">
         <f>Эксперимент!H9</f>
@@ -7353,7 +7360,7 @@
       <c r="L9" s="59">
         <v>1.028508669043341E-12</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.5530600000000003</v>
@@ -7383,7 +7390,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D10" s="60">
         <f>Эксперимент!H10</f>
@@ -7421,7 +7428,7 @@
       <c r="L10" s="59">
         <v>1.7475750566619219E-13</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.53952</v>
@@ -7451,7 +7458,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D11" s="60">
         <f>Эксперимент!H11</f>
@@ -7489,7 +7496,7 @@
       <c r="L11" s="59">
         <v>2.93105569913248E-13</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.5259800000000001</v>
@@ -7519,7 +7526,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D12" s="60">
         <f>Эксперимент!H12</f>
@@ -7557,7 +7564,7 @@
       <c r="L12" s="59">
         <v>6.9403022968506834E-14</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.5076200000000004</v>
@@ -7591,7 +7598,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D13" s="60">
         <f>Эксперимент!H13</f>
@@ -7629,7 +7636,7 @@
       <c r="L13" s="59">
         <v>7.0758475833473851E-14</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.4930399999999999</v>
@@ -7663,7 +7670,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D14" s="60">
         <f>Эксперимент!H14</f>
@@ -7701,7 +7708,7 @@
       <c r="L14" s="59">
         <v>6.9349897493579984E-14</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="109">
         <f>Эксперимент[[#This Row],[ro
 смесь г/мл   ]]</f>
         <v>1.48552</v>
@@ -9465,16 +9472,18 @@
   </sheetPr>
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="8.109375" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="12" width="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9.44140625" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" customWidth="1"/>
   </cols>
@@ -9486,13 +9495,13 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="U1" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -9516,7 +9525,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>1</v>
@@ -9564,22 +9573,22 @@
         <v>12</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="V4" s="68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="W4" s="68" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -10977,7 +10986,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I1">
         <v>-2555.6999999999998</v>
@@ -10987,7 +10996,7 @@
         <v>21.248089799999999</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -11003,30 +11012,30 @@
         <v>8.5915262256455344E-15</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="90" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" s="84" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">

--- a/Experiments/OCM_viscosity/OCM_Solves.xlsx
+++ b/Experiments/OCM_viscosity/OCM_Solves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Experiments\OCM_viscosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3DA13-617D-419A-A0FC-6F34188973DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712162C1-5197-4ABF-9001-B417D5F4A5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -6940,7 +6940,7 @@
   <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
